--- a/src/web/files/storage/input.xlsx
+++ b/src/web/files/storage/input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_52EA6D679497182D167108F667DA5C3A2BD28883" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA02345C-F18C-43A4-9DA6-E8BCA485DADC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EDD65F-DCD2-415A-BCDA-41E23A324839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="345" windowWidth="19665" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>WBC</t>
   </si>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>AP</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>probe</t>
   </si>
 </sst>
 </file>
@@ -69,7 +63,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -94,11 +88,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,112 +370,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11001</v>
       </c>
       <c r="B2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C2">
+        <v>53</v>
+      </c>
+      <c r="D2">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="E2">
+        <v>55</v>
+      </c>
+      <c r="F2">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="G2">
+        <v>19</v>
+      </c>
+      <c r="H2">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="I2">
+        <v>161</v>
+      </c>
+      <c r="J2">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>80</v>
+      <c r="K2">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
